--- a/Upload/vip/format.xlsx
+++ b/Upload/vip/format.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>【出生日期】</t>
   </si>
@@ -84,6 +84,10 @@
   </si>
   <si>
     <t>1970-1-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>法铂丽会员表</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -91,7 +95,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -128,6 +132,21 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -150,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -174,7 +193,12 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -474,7 +498,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -486,18 +510,20 @@
     <col min="10" max="11" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
+    <row r="1" spans="1:11" ht="27">
+      <c r="A1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11" ht="16.5">
       <c r="A2" s="2" t="s">
